--- a/medicine/Enfance/Claire_Franek/Claire_Franek.xlsx
+++ b/medicine/Enfance/Claire_Franek/Claire_Franek.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claire Franek, née Claire Beaudout le 28 juillet 1966 à Paris, et décédée dans la même ville le 9 mars 2016[1], est une auteure pour la jeunesse et illustratrice française.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claire Franek, née Claire Beaudout le 28 juillet 1966 à Paris, et décédée dans la même ville le 9 mars 2016, est une auteure pour la jeunesse et illustratrice française.
 </t>
         </is>
       </c>
@@ -511,16 +523,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claire Franek est née le 28 juillet 1966 à Paris[2]. Elle a étudié les arts plastiques à l'École Olivier de Serres à Paris, la scénographie aux Arts déco de Paris, puis le métier de marionnettiste à l'École de marionnettes de Prague[3].
-Elle a fait ses études à l'École nationale supérieure des arts appliqués et des métiers d'art à Paris[4],[5].
-Elle commence sa carrière en 1996 avec la publication de l'album Qui est au bout du fil ?[6].
-Claire Franek a pour compagnon Marc Daniau, le couple a quatre enfants[7].
-Elle obtient le Prix Chronos 2000[8], catégorie CM1 – CM2, pour Mémé, t'as du courrier qu'elle a illustré, sur un texte de Jo Hoestlandt.
-Son livre Tous à poil ! (2011, Éditions du Rouergue), illustré par Marc Daniau, est un livre portant sur l'acceptation du corps de chacun, face aux publicités, à ce que l'on voit dans les médias et autres qui nous présentent le corps dans une manière idéale, ce qui amène au complexe pour certains. Ses ventes ont rebondi en 2014 à la suite d'une polémique déclenchée à son sujet par Jean-François Copé[9], polémique née du fait que le livre aurait été recommandé dans les écoles par le ministère de l'Éducation  nationale. Chose vite démentie, car ce livre est utilisé par les professeurs dans les écoles sur leur choix, avec des associations, mais aussi dans des hôpitaux (par exemple pour les cas d'anorexie)[10].
-Elle a également réalisé  des  cartes  postales, des  petits  cahiers, des tee-shirts ainsi que des décors de théâtre[2].
-Claire Franek est morte le 9 mars 2016 à l'âge de 49 ans[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claire Franek est née le 28 juillet 1966 à Paris. Elle a étudié les arts plastiques à l'École Olivier de Serres à Paris, la scénographie aux Arts déco de Paris, puis le métier de marionnettiste à l'École de marionnettes de Prague.
+Elle a fait ses études à l'École nationale supérieure des arts appliqués et des métiers d'art à Paris,.
+Elle commence sa carrière en 1996 avec la publication de l'album Qui est au bout du fil ?.
+Claire Franek a pour compagnon Marc Daniau, le couple a quatre enfants.
+Elle obtient le Prix Chronos 2000, catégorie CM1 – CM2, pour Mémé, t'as du courrier qu'elle a illustré, sur un texte de Jo Hoestlandt.
+Son livre Tous à poil ! (2011, Éditions du Rouergue), illustré par Marc Daniau, est un livre portant sur l'acceptation du corps de chacun, face aux publicités, à ce que l'on voit dans les médias et autres qui nous présentent le corps dans une manière idéale, ce qui amène au complexe pour certains. Ses ventes ont rebondi en 2014 à la suite d'une polémique déclenchée à son sujet par Jean-François Copé, polémique née du fait que le livre aurait été recommandé dans les écoles par le ministère de l'Éducation  nationale. Chose vite démentie, car ce livre est utilisé par les professeurs dans les écoles sur leur choix, avec des associations, mais aussi dans des hôpitaux (par exemple pour les cas d'anorexie).
+Elle a également réalisé  des  cartes  postales, des  petits  cahiers, des tee-shirts ainsi que des décors de théâtre.
+Claire Franek est morte le 9 mars 2016 à l'âge de 49 ans.
 </t>
         </is>
       </c>
@@ -549,14 +563,16 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le grand spectacle, Editions du Rouergue , 2016
 La fabrique à musique, texte de Ghislaine Beaudout, co-illustré avec Carole Chaix, Éditions Thierry Magnier, coll. « Livres pratiques », 2015
 Ma vie dans un grille pain, texte de Mikaël Ollivier, Éditions Sarbacane, 2014
 King Kaloumar, texte de Guillaume Guéraud, Éditions Sarbacane, 2013
 Je vous présente Gaston !, texte de Raphaële Frier, Éditions L'édune, 2012
-Tous à poil !, illustré par Marc Daniau, Éditions du Rouergue, 2011[11]
+Tous à poil !, illustré par Marc Daniau, Éditions du Rouergue, 2011
 La fabrique à Théâtre, texte de Ghislaine Beaudout, Éditions Thierry Magnier, 2011
 Tout le monde à dos ! , texte d'Annie Agopian, Éditions du Rouerge, 2011
 Le jeu de cette famille, texte d'Annie Agopian, Éditions du Rouerge, 2009
